--- a/research/check_effect_ncols_nlayers_pointparameter_distribution_SR.xlsx
+++ b/research/check_effect_ncols_nlayers_pointparameter_distribution_SR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sutra2_tool\sutra2\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA3092-D274-4CEF-9623-5065CE10156C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552CC8A-D7A5-4C7F-8DA6-F264D895E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="5" xr2:uid="{F3AE1DE3-37C8-416A-B3FB-C4914D5D4B8E}"/>
+    <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="5" xr2:uid="{F3AE1DE3-37C8-416A-B3FB-C4914D5D4B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="50">
   <si>
     <t>test_phreatic_defecation_withgravelpack</t>
   </si>
@@ -176,6 +176,21 @@
   </si>
   <si>
     <t>Conc vs radius</t>
+  </si>
+  <si>
+    <t>df_conc_cellflux based</t>
+  </si>
+  <si>
+    <t>Conc_diffuse</t>
+  </si>
+  <si>
+    <t>Conc_points</t>
+  </si>
+  <si>
+    <t>df_conc_points</t>
+  </si>
+  <si>
+    <t>df_conc_diffuse</t>
   </si>
 </sst>
 </file>
@@ -697,20 +712,117 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12496313479487263"/>
+          <c:y val="5.3112599852258011E-2"/>
+          <c:w val="0.83199398830332927"/>
+          <c:h val="0.72343581112292665"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$AB$16</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AC$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>df_conc</c:v>
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$Y$17:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$AC$17:$AC$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.5338099981889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.967405928679099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.079779099237498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.083452704603602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.505617585429498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.599247231723098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A368-4CAD-8C03-0BB0A8A9BC00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sensitivity!$AD$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -729,7 +841,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$X$17:$X$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$Y$17:$Y$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -756,27 +868,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$AB$17:$AB$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AD$17:$AD$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.5338099981889</c:v>
+                  <c:v>26.953481549250402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.967405928679099</c:v>
+                  <c:v>40.514018835774202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.079779099237498</c:v>
+                  <c:v>53.989366503020499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.083452704603602</c:v>
+                  <c:v>66.708492920955294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.505617585429498</c:v>
+                  <c:v>51.121952225615402</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.599247231723098</c:v>
+                  <c:v>31.682599794671599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,6 +1153,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2729,11 +2872,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>df_conc</c:v>
+                  <c:v>Conc_points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2779,27 +2922,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$2:$M$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25.5142715540156</c:v>
+                  <c:v>30.488602852813901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.912556563212497</c:v>
+                  <c:v>47.145948184568397</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.495016730010299</c:v>
+                  <c:v>55.976172615030599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.105000000000004</c:v>
+                  <c:v>58.259164607314197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.970674784065494</c:v>
+                  <c:v>60.669777461330497</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.260437855413997</c:v>
+                  <c:v>59.074876438051099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,6 +2951,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F5B9-4131-936A-A5C012B09DF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sensitivity!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.5142715540156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.912556563212497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.495016730010299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.970674784065494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.260437855413997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CFAD-45E8-94AF-64403C4C9E5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3138,11 +3368,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>df_conc</c:v>
+                  <c:v>Conc_points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3161,7 +3391,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$P$2:$P$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$Q$2:$Q$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3188,27 +3418,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$2:$S$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$2:$U$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>84.239617730598596</c:v>
+                  <c:v>73.530652211882</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.079633351404894</c:v>
+                  <c:v>60.561798119740402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.856107087789596</c:v>
+                  <c:v>58.112750469617403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65.105000000000004</c:v>
+                  <c:v>58.259164607314197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.377271664508001</c:v>
+                  <c:v>58.412875175862901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.450543943517303</c:v>
+                  <c:v>58.497180231376703</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,6 +3447,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F734-41DA-8DBF-46A519B18351}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sensitivity!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.239617730598596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.079633351404894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.856107087789596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.377271664508001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.450543943517303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27A0-4089-BD85-0585DDB50321}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3473,6 +3790,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3533,7 +3881,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12961927027933193"/>
+          <c:y val="5.5197123269755885E-2"/>
+          <c:w val="0.82573407209726235"/>
+          <c:h val="0.64233054344867047"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3542,11 +3900,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>df_conc</c:v>
+                  <c:v>Conc_points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3592,27 +3950,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$10:$M$15</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$10:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.449204579620698</c:v>
+                  <c:v>30.1830444101038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.798075477137701</c:v>
+                  <c:v>46.263802582230902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65.105000000000004</c:v>
+                  <c:v>58.259164607314197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.126591575894494</c:v>
+                  <c:v>66.069797313389998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.277107303678207</c:v>
+                  <c:v>57.714170952669498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.288895875584799</c:v>
+                  <c:v>33.126508638956103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3621,6 +3979,93 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-04D7-4BA8-A30D-27A0179CC2BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sensitivity!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$K$10:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$M$10:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.449204579620698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.798075477137701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.126591575894494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.277107303678207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.288895875584799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C17-402D-A72C-3A4BB2BBAF74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3882,6 +4327,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3942,7 +4418,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12496313479487263"/>
+          <c:y val="4.6067783285539794E-2"/>
+          <c:w val="0.83199398830332927"/>
+          <c:h val="0.67593480877447776"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -3951,11 +4437,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>df_conc</c:v>
+                  <c:v>Conc_points</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3974,7 +4460,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$R$10:$R$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$S$10:$S$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3998,24 +4484,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$10:$S$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$10:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59.300528170322302</c:v>
+                  <c:v>53.818476840777997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.105000000000004</c:v>
+                  <c:v>58.259164607314197</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.220388148015303</c:v>
+                  <c:v>59.950818811013697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.305143639711204</c:v>
+                  <c:v>60.662480888164602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.746166130281097</c:v>
+                  <c:v>61.895986534738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4024,6 +4510,87 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5662-4D40-8AB5-536D400B8356}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sensitivity!$T$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$S$10:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sensitivity!$T$10:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.300528170322302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.220388148015303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.305143639711204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.746166130281097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD1D-4ECC-9D82-6B0D00994D30}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4280,6 +4847,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -9888,16 +10486,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>777240</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>153520</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479611</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>357579</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9960,16 +10558,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1169446</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>325195</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37764</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>74071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9996,16 +10594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>172010</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>476809</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10073,16 +10671,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>421006</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10111,16 +10709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>316230</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>558710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>251188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10150,15 +10748,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10187,16 +10785,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>596537</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285205</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11702</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10225,16 +10823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>197848</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>97972</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>502648</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72664</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12089,8 +12687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DE1333-C5E7-44C8-9B36-3E8B6A12E383}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12120,6 +12718,9 @@
       <c r="F1" t="s">
         <v>40</v>
       </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
@@ -12170,6 +12771,9 @@
       <c r="F2">
         <v>8.1099384933809109</v>
       </c>
+      <c r="G2">
+        <v>58.259164607314197</v>
+      </c>
       <c r="I2">
         <v>5</v>
       </c>
@@ -12220,6 +12824,9 @@
       <c r="F3">
         <v>4.6784848647522796</v>
       </c>
+      <c r="G3">
+        <v>30.488602852813901</v>
+      </c>
       <c r="I3">
         <v>10</v>
       </c>
@@ -12270,6 +12877,9 @@
       <c r="F4">
         <v>6.6720264941045899</v>
       </c>
+      <c r="G4">
+        <v>47.145948184568397</v>
+      </c>
       <c r="I4">
         <v>20</v>
       </c>
@@ -12320,6 +12930,9 @@
       <c r="F5">
         <v>7.6056669261403496</v>
       </c>
+      <c r="G5">
+        <v>55.976172615030599</v>
+      </c>
       <c r="I5">
         <v>40</v>
       </c>
@@ -12370,6 +12983,9 @@
       <c r="F6">
         <v>8.4608472248610198</v>
       </c>
+      <c r="G6">
+        <v>60.669777461330497</v>
+      </c>
       <c r="I6">
         <v>80</v>
       </c>
@@ -12420,6 +13036,9 @@
       <c r="F7">
         <v>8.6548337929535908</v>
       </c>
+      <c r="G7">
+        <v>59.074876438051099</v>
+      </c>
       <c r="I7">
         <v>160</v>
       </c>
@@ -12470,6 +13089,9 @@
       <c r="F8">
         <v>10.1114692363312</v>
       </c>
+      <c r="G8">
+        <v>73.530652211882</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -12490,6 +13112,9 @@
       <c r="F9">
         <v>8.4253175726504494</v>
       </c>
+      <c r="G9">
+        <v>60.561798119740402</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>1</v>
       </c>
@@ -12540,6 +13165,9 @@
       <c r="F10">
         <v>8.0796448219710495</v>
       </c>
+      <c r="G10">
+        <v>58.112750469617403</v>
+      </c>
       <c r="I10">
         <v>40</v>
       </c>
@@ -12589,6 +13217,9 @@
       </c>
       <c r="F11">
         <v>8.1387009018225402</v>
+      </c>
+      <c r="G11">
+        <v>58.412875175862901</v>
       </c>
       <c r="I11">
         <v>40</v>
@@ -12640,6 +13271,9 @@
       <c r="F12">
         <v>8.1468615367858206</v>
       </c>
+      <c r="G12">
+        <v>58.497180231376703</v>
+      </c>
       <c r="I12">
         <v>40</v>
       </c>
@@ -12690,6 +13324,9 @@
       <c r="F13">
         <v>5.7686623600420104</v>
       </c>
+      <c r="G13">
+        <v>30.1830444101038</v>
+      </c>
       <c r="I13">
         <v>40</v>
       </c>
@@ -12740,6 +13377,9 @@
       <c r="F14">
         <v>7.1744752559169402</v>
       </c>
+      <c r="G14">
+        <v>46.263802582230902</v>
+      </c>
       <c r="I14">
         <v>40</v>
       </c>
@@ -12790,6 +13430,9 @@
       <c r="F15">
         <v>8.6419753815900506</v>
       </c>
+      <c r="G15">
+        <v>66.069797313389998</v>
+      </c>
       <c r="I15">
         <v>40</v>
       </c>
@@ -12825,6 +13468,9 @@
       <c r="F16">
         <v>8.0332178397855198</v>
       </c>
+      <c r="G16">
+        <v>57.714170952669498</v>
+      </c>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
@@ -12860,6 +13506,9 @@
       <c r="F17">
         <v>8.6786343450227701</v>
       </c>
+      <c r="G17">
+        <v>33.126508638956103</v>
+      </c>
       <c r="W17">
         <v>5</v>
       </c>
@@ -12895,6 +13544,9 @@
       <c r="F18">
         <v>7.4847732068583799</v>
       </c>
+      <c r="G18">
+        <v>53.818476840777997</v>
+      </c>
       <c r="W18">
         <v>10</v>
       </c>
@@ -12930,6 +13582,9 @@
       <c r="F19">
         <v>8.3404924524105102</v>
       </c>
+      <c r="G19">
+        <v>59.950818811013697</v>
+      </c>
       <c r="W19">
         <v>15</v>
       </c>
@@ -12965,6 +13620,9 @@
       <c r="F20">
         <v>8.4546560227959393</v>
       </c>
+      <c r="G20">
+        <v>60.662480888164602</v>
+      </c>
       <c r="W20">
         <v>20</v>
       </c>
@@ -13000,6 +13658,9 @@
       <c r="F21">
         <v>8.6091989579084398</v>
       </c>
+      <c r="G21">
+        <v>61.895986534738</v>
+      </c>
       <c r="W21">
         <v>40</v>
       </c>
@@ -13035,6 +13696,9 @@
       <c r="F22">
         <v>4.3074324846023604</v>
       </c>
+      <c r="G22">
+        <v>26.953481549250402</v>
+      </c>
       <c r="W22">
         <v>80</v>
       </c>
@@ -13070,6 +13734,9 @@
       <c r="F23">
         <v>5.9921622913398203</v>
       </c>
+      <c r="G23">
+        <v>40.514018835774202</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -13090,6 +13757,9 @@
       <c r="F24">
         <v>7.4943840190021298</v>
       </c>
+      <c r="G24">
+        <v>53.989366503020499</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -13110,6 +13780,9 @@
       <c r="F25">
         <v>8.4790016629139693</v>
       </c>
+      <c r="G25">
+        <v>66.708492920955294</v>
+      </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -13130,6 +13803,9 @@
       <c r="F26">
         <v>9.1496005794780597</v>
       </c>
+      <c r="G26">
+        <v>51.121952225615402</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -13149,6 +13825,9 @@
       </c>
       <c r="F27">
         <v>10.181562281466899</v>
+      </c>
+      <c r="G27">
+        <v>31.682599794671599</v>
       </c>
     </row>
   </sheetData>
@@ -13160,10 +13839,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76426CD9-C6E8-473D-ACEA-52258FA2CC17}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13172,9 +13851,11 @@
     <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -13191,7 +13872,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>1</v>
@@ -13206,25 +13890,32 @@
         <v>4</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>40</v>
+      <c r="T1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13243,6 +13934,9 @@
       <c r="F2">
         <v>65.105000000000004</v>
       </c>
+      <c r="G2">
+        <v>58.259164607314197</v>
+      </c>
       <c r="I2">
         <v>5</v>
       </c>
@@ -13258,23 +13952,29 @@
       <c r="M2">
         <v>25.5142715540156</v>
       </c>
-      <c r="O2">
-        <v>40</v>
+      <c r="N2">
+        <v>30.488602852813901</v>
       </c>
       <c r="P2">
+        <v>40</v>
+      </c>
+      <c r="Q2">
         <v>5</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>15</v>
       </c>
-      <c r="R2">
-        <v>10</v>
-      </c>
       <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
         <v>84.239617730598596</v>
       </c>
+      <c r="U2">
+        <v>73.530652211882</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13293,6 +13993,9 @@
       <c r="F3">
         <v>25.5142715540156</v>
       </c>
+      <c r="G3">
+        <v>30.488602852813901</v>
+      </c>
       <c r="I3">
         <v>10</v>
       </c>
@@ -13308,23 +14011,29 @@
       <c r="M3">
         <v>45.912556563212497</v>
       </c>
-      <c r="O3">
-        <v>40</v>
+      <c r="N3">
+        <v>47.145948184568397</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
         <v>15</v>
       </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
       <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
         <v>68.079633351404894</v>
       </c>
+      <c r="U3">
+        <v>60.561798119740402</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13343,6 +14052,9 @@
       <c r="F4">
         <v>45.912556563212497</v>
       </c>
+      <c r="G4">
+        <v>47.145948184568397</v>
+      </c>
       <c r="I4">
         <v>20</v>
       </c>
@@ -13358,23 +14070,29 @@
       <c r="M4">
         <v>58.495016730010299</v>
       </c>
-      <c r="O4">
-        <v>40</v>
+      <c r="N4">
+        <v>55.976172615030599</v>
       </c>
       <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>15</v>
       </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
       <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
         <v>64.856107087789596</v>
       </c>
+      <c r="U4">
+        <v>58.112750469617403</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13393,6 +14111,9 @@
       <c r="F5">
         <v>58.495016730010299</v>
       </c>
+      <c r="G5">
+        <v>55.976172615030599</v>
+      </c>
       <c r="I5">
         <v>40</v>
       </c>
@@ -13408,23 +14129,29 @@
       <c r="M5">
         <v>65.105000000000004</v>
       </c>
-      <c r="O5">
-        <v>40</v>
+      <c r="N5">
+        <v>58.259164607314197</v>
       </c>
       <c r="P5">
         <v>40</v>
       </c>
       <c r="Q5">
+        <v>40</v>
+      </c>
+      <c r="R5">
         <v>15</v>
       </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
       <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
         <v>65.105000000000004</v>
       </c>
+      <c r="U5">
+        <v>58.259164607314197</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13443,6 +14170,9 @@
       <c r="F6">
         <v>68.970674784065494</v>
       </c>
+      <c r="G6">
+        <v>60.669777461330497</v>
+      </c>
       <c r="I6">
         <v>80</v>
       </c>
@@ -13458,23 +14188,29 @@
       <c r="M6">
         <v>68.970674784065494</v>
       </c>
-      <c r="O6">
-        <v>40</v>
+      <c r="N6">
+        <v>60.669777461330497</v>
       </c>
       <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
         <v>80</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>15</v>
       </c>
-      <c r="R6">
-        <v>10</v>
-      </c>
       <c r="S6">
+        <v>10</v>
+      </c>
+      <c r="T6">
         <v>65.377271664508001</v>
       </c>
+      <c r="U6">
+        <v>58.412875175862901</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13493,6 +14229,9 @@
       <c r="F7">
         <v>71.260437855413997</v>
       </c>
+      <c r="G7">
+        <v>59.074876438051099</v>
+      </c>
       <c r="I7">
         <v>160</v>
       </c>
@@ -13508,23 +14247,29 @@
       <c r="M7">
         <v>71.260437855413997</v>
       </c>
-      <c r="O7">
-        <v>40</v>
+      <c r="N7">
+        <v>59.074876438051099</v>
       </c>
       <c r="P7">
+        <v>40</v>
+      </c>
+      <c r="Q7">
         <v>160</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>15</v>
       </c>
-      <c r="R7">
-        <v>10</v>
-      </c>
       <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
         <v>65.450543943517303</v>
       </c>
+      <c r="U7">
+        <v>58.497180231376703</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13543,8 +14288,11 @@
       <c r="F8">
         <v>84.239617730598596</v>
       </c>
+      <c r="G8">
+        <v>73.530652211882</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13563,6 +14311,9 @@
       <c r="F9">
         <v>68.079633351404894</v>
       </c>
+      <c r="G9">
+        <v>60.561798119740402</v>
+      </c>
       <c r="I9" s="7" t="s">
         <v>1</v>
       </c>
@@ -13576,25 +14327,32 @@
         <v>4</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="R9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="S9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="7" t="s">
-        <v>40</v>
+      <c r="T9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13613,6 +14371,9 @@
       <c r="F10">
         <v>64.856107087789596</v>
       </c>
+      <c r="G10">
+        <v>58.112750469617403</v>
+      </c>
       <c r="I10">
         <v>40</v>
       </c>
@@ -13628,23 +14389,29 @@
       <c r="M10">
         <v>36.449204579620698</v>
       </c>
-      <c r="O10">
-        <v>40</v>
+      <c r="N10">
+        <v>30.1830444101038</v>
       </c>
       <c r="P10">
         <v>40</v>
       </c>
       <c r="Q10">
+        <v>40</v>
+      </c>
+      <c r="R10">
         <v>15</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>59.300528170322302</v>
       </c>
+      <c r="U10">
+        <v>53.818476840777997</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13663,6 +14430,9 @@
       <c r="F11">
         <v>65.377271664508001</v>
       </c>
+      <c r="G11">
+        <v>58.412875175862901</v>
+      </c>
       <c r="I11">
         <v>40</v>
       </c>
@@ -13678,23 +14448,29 @@
       <c r="M11">
         <v>52.798075477137701</v>
       </c>
-      <c r="O11">
-        <v>40</v>
+      <c r="N11">
+        <v>46.263802582230902</v>
       </c>
       <c r="P11">
         <v>40</v>
       </c>
       <c r="Q11">
+        <v>40</v>
+      </c>
+      <c r="R11">
         <v>15</v>
       </c>
-      <c r="R11">
-        <v>10</v>
-      </c>
       <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
         <v>65.105000000000004</v>
       </c>
+      <c r="U11">
+        <v>58.259164607314197</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13713,6 +14489,9 @@
       <c r="F12">
         <v>65.450543943517303</v>
       </c>
+      <c r="G12">
+        <v>58.497180231376703</v>
+      </c>
       <c r="I12">
         <v>40</v>
       </c>
@@ -13728,23 +14507,29 @@
       <c r="M12">
         <v>65.105000000000004</v>
       </c>
-      <c r="O12">
-        <v>40</v>
+      <c r="N12">
+        <v>58.259164607314197</v>
       </c>
       <c r="P12">
         <v>40</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="R12">
         <v>15</v>
       </c>
       <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12">
         <v>67.220388148015303</v>
       </c>
+      <c r="U12">
+        <v>59.950818811013697</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13763,6 +14548,9 @@
       <c r="F13">
         <v>36.449204579620698</v>
       </c>
+      <c r="G13">
+        <v>30.1830444101038</v>
+      </c>
       <c r="I13">
         <v>40</v>
       </c>
@@ -13778,23 +14566,29 @@
       <c r="M13">
         <v>73.126591575894494</v>
       </c>
-      <c r="O13">
-        <v>40</v>
+      <c r="N13">
+        <v>66.069797313389998</v>
       </c>
       <c r="P13">
         <v>40</v>
       </c>
       <c r="Q13">
+        <v>40</v>
+      </c>
+      <c r="R13">
         <v>15</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>20</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>68.305143639711204</v>
       </c>
+      <c r="U13">
+        <v>60.662480888164602</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13813,6 +14607,9 @@
       <c r="F14">
         <v>52.798075477137701</v>
       </c>
+      <c r="G14">
+        <v>46.263802582230902</v>
+      </c>
       <c r="I14">
         <v>40</v>
       </c>
@@ -13828,23 +14625,29 @@
       <c r="M14">
         <v>64.277107303678207</v>
       </c>
-      <c r="O14">
-        <v>40</v>
+      <c r="N14">
+        <v>57.714170952669498</v>
       </c>
       <c r="P14">
         <v>40</v>
       </c>
       <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="R14">
         <v>15</v>
       </c>
-      <c r="R14">
-        <v>40</v>
-      </c>
       <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
         <v>69.746166130281097</v>
       </c>
+      <c r="U14">
+        <v>61.895986534738</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13863,6 +14666,9 @@
       <c r="F15">
         <v>73.126591575894494</v>
       </c>
+      <c r="G15">
+        <v>66.069797313389998</v>
+      </c>
       <c r="I15">
         <v>40</v>
       </c>
@@ -13878,8 +14684,11 @@
       <c r="M15">
         <v>38.288895875584799</v>
       </c>
+      <c r="N15">
+        <v>33.126508638956103</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13898,23 +14707,29 @@
       <c r="F16">
         <v>64.277107303678207</v>
       </c>
-      <c r="X16" s="7" t="s">
+      <c r="G16">
+        <v>57.714170952669498</v>
+      </c>
+      <c r="Y16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="Z16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Z16" s="6" t="s">
+      <c r="AA16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AA16" s="7" t="s">
+      <c r="AB16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB16" s="7" t="s">
-        <v>40</v>
+      <c r="AC16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13933,8 +14748,8 @@
       <c r="F17">
         <v>38.288895875584799</v>
       </c>
-      <c r="X17">
-        <v>5</v>
+      <c r="G17">
+        <v>33.126508638956103</v>
       </c>
       <c r="Y17">
         <v>5</v>
@@ -13946,10 +14761,16 @@
         <v>5</v>
       </c>
       <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
         <v>22.5338099981889</v>
       </c>
+      <c r="AD17">
+        <v>26.953481549250402</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13968,8 +14789,8 @@
       <c r="F18">
         <v>59.300528170322302</v>
       </c>
-      <c r="X18">
-        <v>10</v>
+      <c r="G18">
+        <v>53.818476840777997</v>
       </c>
       <c r="Y18">
         <v>10</v>
@@ -13981,10 +14802,16 @@
         <v>10</v>
       </c>
       <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
         <v>38.967405928679099</v>
       </c>
+      <c r="AD18">
+        <v>40.514018835774202</v>
+      </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14003,8 +14830,8 @@
       <c r="F19">
         <v>67.220388148015303</v>
       </c>
-      <c r="X19">
-        <v>15</v>
+      <c r="G19">
+        <v>59.950818811013697</v>
       </c>
       <c r="Y19">
         <v>15</v>
@@ -14016,10 +14843,16 @@
         <v>15</v>
       </c>
       <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
         <v>56.079779099237498</v>
       </c>
+      <c r="AD19">
+        <v>53.989366503020499</v>
+      </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14038,8 +14871,8 @@
       <c r="F20">
         <v>68.305143639711204</v>
       </c>
-      <c r="X20">
-        <v>20</v>
+      <c r="G20">
+        <v>60.662480888164602</v>
       </c>
       <c r="Y20">
         <v>20</v>
@@ -14051,10 +14884,16 @@
         <v>20</v>
       </c>
       <c r="AB20">
+        <v>20</v>
+      </c>
+      <c r="AC20">
         <v>69.083452704603602</v>
       </c>
+      <c r="AD20">
+        <v>66.708492920955294</v>
+      </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14073,8 +14912,8 @@
       <c r="F21">
         <v>69.746166130281097</v>
       </c>
-      <c r="X21">
-        <v>40</v>
+      <c r="G21">
+        <v>61.895986534738</v>
       </c>
       <c r="Y21">
         <v>40</v>
@@ -14086,10 +14925,16 @@
         <v>40</v>
       </c>
       <c r="AB21">
+        <v>40</v>
+      </c>
+      <c r="AC21">
         <v>57.505617585429498</v>
       </c>
+      <c r="AD21">
+        <v>51.121952225615402</v>
+      </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14108,8 +14953,8 @@
       <c r="F22">
         <v>22.5338099981889</v>
       </c>
-      <c r="X22">
-        <v>80</v>
+      <c r="G22">
+        <v>26.953481549250402</v>
       </c>
       <c r="Y22">
         <v>80</v>
@@ -14121,10 +14966,16 @@
         <v>80</v>
       </c>
       <c r="AB22">
+        <v>80</v>
+      </c>
+      <c r="AC22">
         <v>37.599247231723098</v>
       </c>
+      <c r="AD22">
+        <v>31.682599794671599</v>
+      </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14143,8 +14994,11 @@
       <c r="F23">
         <v>38.967405928679099</v>
       </c>
+      <c r="G23">
+        <v>40.514018835774202</v>
+      </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14163,8 +15017,11 @@
       <c r="F24">
         <v>56.079779099237498</v>
       </c>
+      <c r="G24">
+        <v>53.989366503020499</v>
+      </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14183,8 +15040,11 @@
       <c r="F25">
         <v>69.083452704603602</v>
       </c>
+      <c r="G25">
+        <v>66.708492920955294</v>
+      </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14203,8 +15063,11 @@
       <c r="F26">
         <v>57.505617585429498</v>
       </c>
+      <c r="G26">
+        <v>51.121952225615402</v>
+      </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14222,6 +15085,9 @@
       </c>
       <c r="F27">
         <v>37.599247231723098</v>
+      </c>
+      <c r="G27">
+        <v>31.682599794671599</v>
       </c>
     </row>
   </sheetData>

--- a/research/check_effect_ncols_nlayers_pointparameter_distribution_SR.xlsx
+++ b/research/check_effect_ncols_nlayers_pointparameter_distribution_SR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sutra2_tool\sutra2\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2552CC8A-D7A5-4C7F-8DA6-F264D895E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5218F9C-1B3C-4685-8A5C-249675A3BB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1995" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="5" xr2:uid="{F3AE1DE3-37C8-416A-B3FB-C4914D5D4B8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{F3AE1DE3-37C8-416A-B3FB-C4914D5D4B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="points" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="diffuse_1percell_220811" sheetId="3" r:id="rId4"/>
     <sheet name="scenarios_points_sensitivity" sheetId="6" r:id="rId5"/>
     <sheet name="scenarios_diffuse_sensitivity" sheetId="7" r:id="rId6"/>
-    <sheet name="invloed_deeltjes_massaber" sheetId="8" r:id="rId7"/>
+    <sheet name="scenarios_diffuse_sens_220822" sheetId="9" r:id="rId7"/>
+    <sheet name="invloed_deeltjes_massaber" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="51">
   <si>
     <t>test_phreatic_defecation_withgravelpack</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>df_conc_diffuse</t>
+  </si>
+  <si>
+    <t>df_conc_diffuse_vertical_flowcorr</t>
   </si>
 </sst>
 </file>
@@ -731,7 +735,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$AC$16</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AD$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -754,7 +758,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$Y$17:$Y$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$Z$17:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -781,7 +785,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$AC$17:$AC$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AD$17:$AD$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -818,7 +822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$AD$16</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AE$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +845,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$Y$17:$Y$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$Z$17:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -868,7 +872,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$AD$17:$AD$22</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$AE$17:$AE$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -897,6 +901,3042 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F886-4308-A739-2786C90EB652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343975760"/>
+        <c:axId val="343982416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343975760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>ncols and nlayers (even distribution)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343982416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343982416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343975760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.488602852813901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.145948184568397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.976172615030599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.259164607314197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60.669777461330497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.074876438051099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17CB-4235-85FF-DB0C61834A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25.5142715540156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.912556563212497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.495016730010299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.970674784065494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.260437855413997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-17CB-4235-85FF-DB0C61834A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ncols_near_well</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>62.206811728575097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.147389269586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.81812651479601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.25341914512001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>142.39102290042899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146.779849590662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-17CB-4235-85FF-DB0C61834A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="198325184"/>
+        <c:axId val="198328512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="198325184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>ncol</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> near well</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198328512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="198328512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198325184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>73.530652211882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.561798119740402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.112750469617403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.259164607314197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.412875175862901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.497180231376703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8550-4E5F-897D-3D4443AB538E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>84.239617730598596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.079633351404894</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.856107087789596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.377271664508001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.450543943517303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8550-4E5F-897D-3D4443AB538E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>df_conc_diffuse_vertical_flowcorr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>173.286137478764</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.271734971607</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.76039636918699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.25341914512001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.781837982121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135.93978810446001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8550-4E5F-897D-3D4443AB538E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437348272"/>
+        <c:axId val="437349104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437348272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>ncol far from well</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437349104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437349104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437348272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12961927027933193"/>
+          <c:y val="5.5197123269755885E-2"/>
+          <c:w val="0.82573407209726235"/>
+          <c:h val="0.64233054344867047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$O$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.1830444101038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.263802582230902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.259164607314197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.069797313389998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.714170952669498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.126508638956103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13B0-4E33-9552-BAEE1D9F10E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$N$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.449204579620698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.798075477137701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.126591575894494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.277107303678207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.288895875584799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13B0-4E33-9552-BAEE1D9F10E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$P$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>df_conc_diffuse_vertical_flowcorr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$P$10:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>82.754980469491201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113.215983062109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.25341914512001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>148.968029356844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>133.78717268393501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.934700320406407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13B0-4E33-9552-BAEE1D9F10E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199384944"/>
+        <c:axId val="199384528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199384944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Layers shallow</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> aquifer</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199384528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199384528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199384944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12496313479487263"/>
+          <c:y val="4.6067783285539794E-2"/>
+          <c:w val="0.83199398830332927"/>
+          <c:h val="0.67593480877447776"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$W$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$U$10:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$W$10:$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>53.818476840777997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.259164607314197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.950818811013697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60.662480888164602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.895986534738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4124-4788-8946-5EC2DA4389B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$V$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$U$10:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$V$10:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.300528170322302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.105000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.220388148015303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.305143639711204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.746166130281097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4124-4788-8946-5EC2DA4389B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$X$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>df_conc_diffuse_vertical_flowcorr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$U$10:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$X$10:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123.722012668207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.25341914512001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.535081771547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.694958439305</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.567174371308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4124-4788-8946-5EC2DA4389B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="437354512"/>
+        <c:axId val="437352848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="437354512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Layers target aquifer</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437352848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="437352848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Concentration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="437354512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12496313479487263"/>
+          <c:y val="5.3112599852258011E-2"/>
+          <c:w val="0.83199398830332927"/>
+          <c:h val="0.72343581112292665"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$AD$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_diffuse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$Z$17:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$AD$17:$AD$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22.5338099981889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.967405928679099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.079779099237498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.083452704603602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.505617585429498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.599247231723098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB98-4A24-B975-3FA9C5D0EFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$AE$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Conc_points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$Z$17:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$AE$17:$AE$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.953481549250402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.514018835774202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.989366503020499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.708492920955294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.121952225615402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.682599794671599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB98-4A24-B975-3FA9C5D0EFB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scenarios_diffuse_sens_220822!$AF$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>df_conc_diffuse_vertical_flowcorr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$Z$17:$Z$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scenarios_diffuse_sens_220822!$AF$17:$AF$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>55.678338914558701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.480715868022699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.29947497023301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>143.34535774909099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>115.715415608722</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.611210073941507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EB98-4A24-B975-3FA9C5D0EFB8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2872,7 +5912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$N$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2895,7 +5935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$I$2:$I$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2922,7 +5962,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$N$2:$N$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$O$2:$O$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2959,7 +5999,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2982,7 +6022,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$I$2:$I$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3009,7 +6049,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$2:$M$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$2:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3368,7 +6408,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$U$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3391,7 +6431,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$Q$2:$Q$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3418,7 +6458,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$U$2:$U$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$W$2:$W$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3455,7 +6495,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$T$1</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3478,7 +6518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$Q$2:$Q$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$S$2:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3505,7 +6545,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$T$2:$T$7</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$V$2:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3900,7 +6940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$N$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3923,7 +6963,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$K$10:$K$15</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$L$10:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3950,7 +6990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$N$10:$N$15</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$O$10:$O$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3987,7 +7027,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4010,7 +7050,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$K$10:$K$15</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$L$10:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4037,7 +7077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$M$10:$M$15</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$N$10:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4437,7 +7477,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$U$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$W$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4460,7 +7500,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$10:$S$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$10:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4484,7 +7524,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$U$10:$U$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$W$10:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4518,7 +7558,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>scenarios_diffuse_sensitivity!$T$9</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$V$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4541,7 +7581,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$S$10:$S$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$U$10:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4565,7 +7605,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>scenarios_diffuse_sensitivity!$T$10:$T$14</c:f>
+              <c:f>scenarios_diffuse_sensitivity!$V$10:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5002,6 +8042,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6354,6 +9594,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10671,13 +16491,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>121921</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>421006</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>110762</xdr:rowOff>
@@ -10709,13 +16529,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>558710</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>75111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>251188</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>88718</xdr:rowOff>
@@ -10747,13 +16567,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>99059</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>408215</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -10785,13 +16605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>596537</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>145867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>285205</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>11702</xdr:rowOff>
@@ -10823,13 +16643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>197848</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>99606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>502648</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>72664</xdr:rowOff>
@@ -10844,6 +16664,201 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121921</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>421006</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE6069E-07B9-45EC-B2E5-6459784A230D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>558710</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>251188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88718</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFFA846E-C1F0-4FC2-9418-CEFFED6D4B25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99059</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8FA6D0B-2D55-4F74-9E2D-972822C4D258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596537</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285205</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>11702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{092A3BA7-A8CB-41A0-8938-7B0D4EC5ADFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>197848</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>502648</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72664</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B10A62-6588-42BF-ADF8-C1A8E49CAE50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11469,7 +17484,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11767,7 +17782,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12048,8 +18063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1D47DC-C75B-48BF-A629-68C92A7FD632}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13839,10 +19854,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76426CD9-C6E8-473D-ACEA-52258FA2CC17}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13853,9 +19868,10 @@
     <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -13877,45 +19893,53 @@
       <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13937,44 +19961,53 @@
       <c r="G2">
         <v>58.259164607314197</v>
       </c>
-      <c r="I2">
+      <c r="H2">
+        <v>135.25341914512001</v>
+      </c>
+      <c r="J2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>40</v>
-      </c>
       <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
         <v>15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>25.5142715540156</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>30.488602852813901</v>
       </c>
       <c r="P2">
-        <v>40</v>
-      </c>
-      <c r="Q2">
+        <v>62.206811728575097</v>
+      </c>
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>15</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>84.239617730598596</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>73.530652211882</v>
       </c>
+      <c r="X2">
+        <v>173.286137478764</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13996,44 +20029,53 @@
       <c r="G3">
         <v>30.488602852813901</v>
       </c>
-      <c r="I3">
+      <c r="H3">
+        <v>62.206811728575097</v>
+      </c>
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3">
-        <v>40</v>
-      </c>
       <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
         <v>15</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>45.912556563212497</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>47.145948184568397</v>
       </c>
       <c r="P3">
-        <v>40</v>
-      </c>
-      <c r="Q3">
-        <v>10</v>
+        <v>102.147389269586</v>
       </c>
       <c r="R3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="S3">
         <v>10</v>
       </c>
       <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
         <v>68.079633351404894</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>60.561798119740402</v>
       </c>
+      <c r="X3">
+        <v>141.271734971607</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -14055,44 +20097,53 @@
       <c r="G4">
         <v>47.145948184568397</v>
       </c>
-      <c r="I4">
+      <c r="H4">
+        <v>102.147389269586</v>
+      </c>
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
       <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
         <v>15</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>58.495016730010299</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>55.976172615030599</v>
       </c>
       <c r="P4">
-        <v>40</v>
-      </c>
-      <c r="Q4">
+        <v>123.81812651479601</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>15</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>64.856107087789596</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>58.112750469617403</v>
       </c>
+      <c r="X4">
+        <v>134.76039636918699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -14114,44 +20165,53 @@
       <c r="G5">
         <v>55.976172615030599</v>
       </c>
-      <c r="I5">
-        <v>40</v>
+      <c r="H5">
+        <v>123.81812651479601</v>
       </c>
       <c r="J5">
         <v>40</v>
       </c>
       <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
         <v>15</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>65.105000000000004</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>58.259164607314197</v>
       </c>
       <c r="P5">
-        <v>40</v>
-      </c>
-      <c r="Q5">
-        <v>40</v>
+        <v>135.25341914512001</v>
       </c>
       <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
         <v>15</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>10</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>65.105000000000004</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>58.259164607314197</v>
       </c>
+      <c r="X5">
+        <v>135.25341914512001</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14173,44 +20233,53 @@
       <c r="G6">
         <v>60.669777461330497</v>
       </c>
-      <c r="I6">
+      <c r="H6">
+        <v>142.39102290042899</v>
+      </c>
+      <c r="J6">
         <v>80</v>
       </c>
-      <c r="J6">
-        <v>40</v>
-      </c>
       <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
         <v>15</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>68.970674784065494</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>60.669777461330497</v>
       </c>
       <c r="P6">
-        <v>40</v>
-      </c>
-      <c r="Q6">
+        <v>142.39102290042899</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
         <v>80</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>15</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>10</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>65.377271664508001</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>58.412875175862901</v>
       </c>
+      <c r="X6">
+        <v>135.781837982121</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14232,44 +20301,53 @@
       <c r="G7">
         <v>59.074876438051099</v>
       </c>
-      <c r="I7">
+      <c r="H7">
+        <v>146.779849590662</v>
+      </c>
+      <c r="J7">
         <v>160</v>
       </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
       <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>71.260437855413997</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>59.074876438051099</v>
       </c>
       <c r="P7">
-        <v>40</v>
-      </c>
-      <c r="Q7">
+        <v>146.779849590662</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
         <v>160</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>15</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>65.450543943517303</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>58.497180231376703</v>
       </c>
+      <c r="X7">
+        <v>135.93978810446001</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -14291,8 +20369,11 @@
       <c r="G8">
         <v>73.530652211882</v>
       </c>
+      <c r="H8">
+        <v>173.286137478764</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -14314,45 +20395,53 @@
       <c r="G9">
         <v>60.561798119740402</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H9">
+        <v>141.271734971607</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="N9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="7"/>
       <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="S9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -14374,44 +20463,53 @@
       <c r="G10">
         <v>58.112750469617403</v>
       </c>
-      <c r="I10">
-        <v>40</v>
+      <c r="H10">
+        <v>134.76039636918699</v>
       </c>
       <c r="J10">
         <v>40</v>
       </c>
       <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>36.449204579620698</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>30.1830444101038</v>
       </c>
       <c r="P10">
-        <v>40</v>
-      </c>
-      <c r="Q10">
-        <v>40</v>
+        <v>82.754980469491201</v>
       </c>
       <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
         <v>15</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>5</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>59.300528170322302</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>53.818476840777997</v>
       </c>
+      <c r="X10">
+        <v>123.722012668207</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -14433,44 +20531,53 @@
       <c r="G11">
         <v>58.412875175862901</v>
       </c>
-      <c r="I11">
-        <v>40</v>
+      <c r="H11">
+        <v>135.781837982121</v>
       </c>
       <c r="J11">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
         <v>52.798075477137701</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>46.263802582230902</v>
       </c>
       <c r="P11">
-        <v>40</v>
-      </c>
-      <c r="Q11">
-        <v>40</v>
+        <v>113.215983062109</v>
       </c>
       <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
         <v>15</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>10</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>65.105000000000004</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>58.259164607314197</v>
       </c>
+      <c r="X11">
+        <v>135.25341914512001</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -14492,44 +20599,53 @@
       <c r="G12">
         <v>58.497180231376703</v>
       </c>
-      <c r="I12">
-        <v>40</v>
+      <c r="H12">
+        <v>135.93978810446001</v>
       </c>
       <c r="J12">
         <v>40</v>
       </c>
       <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
         <v>15</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>65.105000000000004</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>58.259164607314197</v>
       </c>
       <c r="P12">
-        <v>40</v>
-      </c>
-      <c r="Q12">
-        <v>40</v>
+        <v>135.25341914512001</v>
       </c>
       <c r="R12">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
         <v>15</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>15</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>67.220388148015303</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>59.950818811013697</v>
       </c>
+      <c r="X12">
+        <v>139.535081771547</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -14551,44 +20667,53 @@
       <c r="G13">
         <v>30.1830444101038</v>
       </c>
-      <c r="I13">
-        <v>40</v>
+      <c r="H13">
+        <v>82.754980469491201</v>
       </c>
       <c r="J13">
         <v>40</v>
       </c>
       <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
         <v>20</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>73.126591575894494</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>66.069797313389998</v>
       </c>
       <c r="P13">
-        <v>40</v>
-      </c>
-      <c r="Q13">
-        <v>40</v>
+        <v>148.968029356844</v>
       </c>
       <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
         <v>15</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>20</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>68.305143639711204</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>60.662480888164602</v>
       </c>
+      <c r="X13">
+        <v>141.694958439305</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -14610,44 +20735,53 @@
       <c r="G14">
         <v>46.263802582230902</v>
       </c>
-      <c r="I14">
-        <v>40</v>
+      <c r="H14">
+        <v>113.215983062109</v>
       </c>
       <c r="J14">
         <v>40</v>
       </c>
       <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
         <v>30</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>64.277107303678207</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>57.714170952669498</v>
       </c>
       <c r="P14">
-        <v>40</v>
-      </c>
-      <c r="Q14">
-        <v>40</v>
+        <v>133.78717268393501</v>
       </c>
       <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
         <v>15</v>
       </c>
-      <c r="S14">
-        <v>40</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>40</v>
+      </c>
+      <c r="V14">
         <v>69.746166130281097</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>61.895986534738</v>
       </c>
+      <c r="X14">
+        <v>144.567174371308</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -14669,26 +20803,32 @@
       <c r="G15">
         <v>66.069797313389998</v>
       </c>
-      <c r="I15">
-        <v>40</v>
+      <c r="H15">
+        <v>148.968029356844</v>
       </c>
       <c r="J15">
         <v>40</v>
       </c>
       <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
         <v>60</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>38.288895875584799</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>33.126508638956103</v>
       </c>
+      <c r="P15">
+        <v>72.934700320406407</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -14710,26 +20850,32 @@
       <c r="G16">
         <v>57.714170952669498</v>
       </c>
-      <c r="Y16" s="7" t="s">
+      <c r="H16">
+        <v>133.78717268393501</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z16" s="7" t="s">
+      <c r="AA16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AA16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AB16" s="7" t="s">
+      <c r="AC16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" s="7" t="s">
+      <c r="AD16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AD16" s="7" t="s">
+      <c r="AE16" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -14751,8 +20897,8 @@
       <c r="G17">
         <v>33.126508638956103</v>
       </c>
-      <c r="Y17">
-        <v>5</v>
+      <c r="H17">
+        <v>72.934700320406407</v>
       </c>
       <c r="Z17">
         <v>5</v>
@@ -14764,13 +20910,19 @@
         <v>5</v>
       </c>
       <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
         <v>22.5338099981889</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>26.953481549250402</v>
       </c>
+      <c r="AF17">
+        <v>55.678338914558701</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -14792,8 +20944,8 @@
       <c r="G18">
         <v>53.818476840777997</v>
       </c>
-      <c r="Y18">
-        <v>10</v>
+      <c r="H18">
+        <v>123.722012668207</v>
       </c>
       <c r="Z18">
         <v>10</v>
@@ -14805,13 +20957,19 @@
         <v>10</v>
       </c>
       <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
         <v>38.967405928679099</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>40.514018835774202</v>
       </c>
+      <c r="AF18">
+        <v>88.480715868022699</v>
+      </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -14833,8 +20991,8 @@
       <c r="G19">
         <v>59.950818811013697</v>
       </c>
-      <c r="Y19">
-        <v>15</v>
+      <c r="H19">
+        <v>139.535081771547</v>
       </c>
       <c r="Z19">
         <v>15</v>
@@ -14846,13 +21004,19 @@
         <v>15</v>
       </c>
       <c r="AC19">
+        <v>15</v>
+      </c>
+      <c r="AD19">
         <v>56.079779099237498</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>53.989366503020499</v>
       </c>
+      <c r="AF19">
+        <v>120.29947497023301</v>
+      </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -14874,8 +21038,8 @@
       <c r="G20">
         <v>60.662480888164602</v>
       </c>
-      <c r="Y20">
-        <v>20</v>
+      <c r="H20">
+        <v>141.694958439305</v>
       </c>
       <c r="Z20">
         <v>20</v>
@@ -14887,13 +21051,19 @@
         <v>20</v>
       </c>
       <c r="AC20">
+        <v>20</v>
+      </c>
+      <c r="AD20">
         <v>69.083452704603602</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>66.708492920955294</v>
       </c>
+      <c r="AF20">
+        <v>143.34535774909099</v>
+      </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -14915,8 +21085,8 @@
       <c r="G21">
         <v>61.895986534738</v>
       </c>
-      <c r="Y21">
-        <v>40</v>
+      <c r="H21">
+        <v>144.567174371308</v>
       </c>
       <c r="Z21">
         <v>40</v>
@@ -14928,13 +21098,19 @@
         <v>40</v>
       </c>
       <c r="AC21">
+        <v>40</v>
+      </c>
+      <c r="AD21">
         <v>57.505617585429498</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>51.121952225615402</v>
       </c>
+      <c r="AF21">
+        <v>115.715415608722</v>
+      </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14956,8 +21132,8 @@
       <c r="G22">
         <v>26.953481549250402</v>
       </c>
-      <c r="Y22">
-        <v>80</v>
+      <c r="H22">
+        <v>55.678338914558701</v>
       </c>
       <c r="Z22">
         <v>80</v>
@@ -14969,13 +21145,19 @@
         <v>80</v>
       </c>
       <c r="AC22">
+        <v>80</v>
+      </c>
+      <c r="AD22">
         <v>37.599247231723098</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>31.682599794671599</v>
       </c>
+      <c r="AF22">
+        <v>66.611210073941507</v>
+      </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14997,8 +21179,11 @@
       <c r="G23">
         <v>40.514018835774202</v>
       </c>
+      <c r="H23">
+        <v>88.480715868022699</v>
+      </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15020,8 +21205,11 @@
       <c r="G24">
         <v>53.989366503020499</v>
       </c>
+      <c r="H24">
+        <v>120.29947497023301</v>
+      </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15043,8 +21231,11 @@
       <c r="G25">
         <v>66.708492920955294</v>
       </c>
+      <c r="H25">
+        <v>143.34535774909099</v>
+      </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -15066,8 +21257,11 @@
       <c r="G26">
         <v>51.121952225615402</v>
       </c>
+      <c r="H26">
+        <v>115.715415608722</v>
+      </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -15088,6 +21282,9 @@
       </c>
       <c r="G27">
         <v>31.682599794671599</v>
+      </c>
+      <c r="H27">
+        <v>66.611210073941507</v>
       </c>
     </row>
   </sheetData>
@@ -15098,6 +21295,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263D50E-0E4C-4AEF-8D0F-712D315ABD47}">
+  <dimension ref="A1:AF27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>65.105000000000004</v>
+      </c>
+      <c r="G2">
+        <v>58.259164607314197</v>
+      </c>
+      <c r="H2">
+        <v>135.25341914512001</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>25.5142715540156</v>
+      </c>
+      <c r="O2">
+        <v>30.488602852813901</v>
+      </c>
+      <c r="P2">
+        <v>62.206811728575097</v>
+      </c>
+      <c r="R2">
+        <v>40</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>15</v>
+      </c>
+      <c r="U2">
+        <v>10</v>
+      </c>
+      <c r="V2">
+        <v>84.239617730598596</v>
+      </c>
+      <c r="W2">
+        <v>73.530652211882</v>
+      </c>
+      <c r="X2">
+        <v>173.286137478764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>25.5142715540156</v>
+      </c>
+      <c r="G3">
+        <v>30.488602852813901</v>
+      </c>
+      <c r="H3">
+        <v>62.206811728575097</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>45.912556563212497</v>
+      </c>
+      <c r="O3">
+        <v>47.145948184568397</v>
+      </c>
+      <c r="P3">
+        <v>102.147389269586</v>
+      </c>
+      <c r="R3">
+        <v>40</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>15</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>68.079633351404894</v>
+      </c>
+      <c r="W3">
+        <v>60.561798119740402</v>
+      </c>
+      <c r="X3">
+        <v>141.271734971607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>45.912556563212497</v>
+      </c>
+      <c r="G4">
+        <v>47.145948184568397</v>
+      </c>
+      <c r="H4">
+        <v>102.147389269586</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>58.495016730010299</v>
+      </c>
+      <c r="O4">
+        <v>55.976172615030599</v>
+      </c>
+      <c r="P4">
+        <v>123.81812651479601</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="T4">
+        <v>15</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>64.856107087789596</v>
+      </c>
+      <c r="W4">
+        <v>58.112750469617403</v>
+      </c>
+      <c r="X4">
+        <v>134.76039636918699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>58.495016730010299</v>
+      </c>
+      <c r="G5">
+        <v>55.976172615030599</v>
+      </c>
+      <c r="H5">
+        <v>123.81812651479601</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>65.105000000000004</v>
+      </c>
+      <c r="O5">
+        <v>58.259164607314197</v>
+      </c>
+      <c r="P5">
+        <v>135.25341914512001</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>65.105000000000004</v>
+      </c>
+      <c r="W5">
+        <v>58.259164607314197</v>
+      </c>
+      <c r="X5">
+        <v>135.25341914512001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>68.970674784065494</v>
+      </c>
+      <c r="G6">
+        <v>60.669777461330497</v>
+      </c>
+      <c r="H6">
+        <v>142.39102290042899</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>68.970674784065494</v>
+      </c>
+      <c r="O6">
+        <v>60.669777461330497</v>
+      </c>
+      <c r="P6">
+        <v>142.39102290042899</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+      <c r="S6">
+        <v>80</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>65.377271664508001</v>
+      </c>
+      <c r="W6">
+        <v>58.412875175862901</v>
+      </c>
+      <c r="X6">
+        <v>135.781837982121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>71.260437855413997</v>
+      </c>
+      <c r="G7">
+        <v>59.074876438051099</v>
+      </c>
+      <c r="H7">
+        <v>146.779849590662</v>
+      </c>
+      <c r="J7">
+        <v>160</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>71.260437855413997</v>
+      </c>
+      <c r="O7">
+        <v>59.074876438051099</v>
+      </c>
+      <c r="P7">
+        <v>146.779849590662</v>
+      </c>
+      <c r="R7">
+        <v>40</v>
+      </c>
+      <c r="S7">
+        <v>160</v>
+      </c>
+      <c r="T7">
+        <v>15</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>65.450543943517303</v>
+      </c>
+      <c r="W7">
+        <v>58.497180231376703</v>
+      </c>
+      <c r="X7">
+        <v>135.93978810446001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>84.239617730598596</v>
+      </c>
+      <c r="G8">
+        <v>73.530652211882</v>
+      </c>
+      <c r="H8">
+        <v>173.286137478764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>68.079633351404894</v>
+      </c>
+      <c r="G9">
+        <v>60.561798119740402</v>
+      </c>
+      <c r="H9">
+        <v>141.271734971607</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>64.856107087789596</v>
+      </c>
+      <c r="G10">
+        <v>58.112750469617403</v>
+      </c>
+      <c r="H10">
+        <v>134.76039636918699</v>
+      </c>
+      <c r="J10">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>36.449204579620698</v>
+      </c>
+      <c r="O10">
+        <v>30.1830444101038</v>
+      </c>
+      <c r="P10">
+        <v>82.754980469491201</v>
+      </c>
+      <c r="R10">
+        <v>40</v>
+      </c>
+      <c r="S10">
+        <v>40</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>59.300528170322302</v>
+      </c>
+      <c r="W10">
+        <v>53.818476840777997</v>
+      </c>
+      <c r="X10">
+        <v>123.722012668207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>65.377271664508001</v>
+      </c>
+      <c r="G11">
+        <v>58.412875175862901</v>
+      </c>
+      <c r="H11">
+        <v>135.781837982121</v>
+      </c>
+      <c r="J11">
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>52.798075477137701</v>
+      </c>
+      <c r="O11">
+        <v>46.263802582230902</v>
+      </c>
+      <c r="P11">
+        <v>113.215983062109</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>65.105000000000004</v>
+      </c>
+      <c r="W11">
+        <v>58.259164607314197</v>
+      </c>
+      <c r="X11">
+        <v>135.25341914512001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>160</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>65.450543943517303</v>
+      </c>
+      <c r="G12">
+        <v>58.497180231376703</v>
+      </c>
+      <c r="H12">
+        <v>135.93978810446001</v>
+      </c>
+      <c r="J12">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>65.105000000000004</v>
+      </c>
+      <c r="O12">
+        <v>58.259164607314197</v>
+      </c>
+      <c r="P12">
+        <v>135.25341914512001</v>
+      </c>
+      <c r="R12">
+        <v>40</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12">
+        <v>15</v>
+      </c>
+      <c r="U12">
+        <v>15</v>
+      </c>
+      <c r="V12">
+        <v>67.220388148015303</v>
+      </c>
+      <c r="W12">
+        <v>59.950818811013697</v>
+      </c>
+      <c r="X12">
+        <v>139.535081771547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>36.449204579620698</v>
+      </c>
+      <c r="G13">
+        <v>30.1830444101038</v>
+      </c>
+      <c r="H13">
+        <v>82.754980469491201</v>
+      </c>
+      <c r="J13">
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>73.126591575894494</v>
+      </c>
+      <c r="O13">
+        <v>66.069797313389998</v>
+      </c>
+      <c r="P13">
+        <v>148.968029356844</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>15</v>
+      </c>
+      <c r="U13">
+        <v>20</v>
+      </c>
+      <c r="V13">
+        <v>68.305143639711204</v>
+      </c>
+      <c r="W13">
+        <v>60.662480888164602</v>
+      </c>
+      <c r="X13">
+        <v>141.694958439305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>52.798075477137701</v>
+      </c>
+      <c r="G14">
+        <v>46.263802582230902</v>
+      </c>
+      <c r="H14">
+        <v>113.215983062109</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>64.277107303678207</v>
+      </c>
+      <c r="O14">
+        <v>57.714170952669498</v>
+      </c>
+      <c r="P14">
+        <v>133.78717268393501</v>
+      </c>
+      <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>40</v>
+      </c>
+      <c r="T14">
+        <v>15</v>
+      </c>
+      <c r="U14">
+        <v>40</v>
+      </c>
+      <c r="V14">
+        <v>69.746166130281097</v>
+      </c>
+      <c r="W14">
+        <v>61.895986534738</v>
+      </c>
+      <c r="X14">
+        <v>144.567174371308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>73.126591575894494</v>
+      </c>
+      <c r="G15">
+        <v>66.069797313389998</v>
+      </c>
+      <c r="H15">
+        <v>148.968029356844</v>
+      </c>
+      <c r="J15">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>60</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>38.288895875584799</v>
+      </c>
+      <c r="O15">
+        <v>33.126508638956103</v>
+      </c>
+      <c r="P15">
+        <v>72.934700320406407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>64.277107303678207</v>
+      </c>
+      <c r="G16">
+        <v>57.714170952669498</v>
+      </c>
+      <c r="H16">
+        <v>133.78717268393501</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>38.288895875584799</v>
+      </c>
+      <c r="G17">
+        <v>33.126508638956103</v>
+      </c>
+      <c r="H17">
+        <v>72.934700320406407</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>5</v>
+      </c>
+      <c r="AD17">
+        <v>22.5338099981889</v>
+      </c>
+      <c r="AE17">
+        <v>26.953481549250402</v>
+      </c>
+      <c r="AF17">
+        <v>55.678338914558701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>59.300528170322302</v>
+      </c>
+      <c r="G18">
+        <v>53.818476840777997</v>
+      </c>
+      <c r="H18">
+        <v>123.722012668207</v>
+      </c>
+      <c r="Z18">
+        <v>10</v>
+      </c>
+      <c r="AA18">
+        <v>10</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18">
+        <v>10</v>
+      </c>
+      <c r="AD18">
+        <v>38.967405928679099</v>
+      </c>
+      <c r="AE18">
+        <v>40.514018835774202</v>
+      </c>
+      <c r="AF18">
+        <v>88.480715868022699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>67.220388148015303</v>
+      </c>
+      <c r="G19">
+        <v>59.950818811013697</v>
+      </c>
+      <c r="H19">
+        <v>139.535081771547</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+      <c r="AB19">
+        <v>15</v>
+      </c>
+      <c r="AC19">
+        <v>15</v>
+      </c>
+      <c r="AD19">
+        <v>56.079779099237498</v>
+      </c>
+      <c r="AE19">
+        <v>53.989366503020499</v>
+      </c>
+      <c r="AF19">
+        <v>120.29947497023301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>68.305143639711204</v>
+      </c>
+      <c r="G20">
+        <v>60.662480888164602</v>
+      </c>
+      <c r="H20">
+        <v>141.694958439305</v>
+      </c>
+      <c r="Z20">
+        <v>20</v>
+      </c>
+      <c r="AA20">
+        <v>20</v>
+      </c>
+      <c r="AB20">
+        <v>20</v>
+      </c>
+      <c r="AC20">
+        <v>20</v>
+      </c>
+      <c r="AD20">
+        <v>69.083452704603602</v>
+      </c>
+      <c r="AE20">
+        <v>66.708492920955294</v>
+      </c>
+      <c r="AF20">
+        <v>143.34535774909099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>40</v>
+      </c>
+      <c r="F21">
+        <v>69.746166130281097</v>
+      </c>
+      <c r="G21">
+        <v>61.895986534738</v>
+      </c>
+      <c r="H21">
+        <v>144.567174371308</v>
+      </c>
+      <c r="Z21">
+        <v>40</v>
+      </c>
+      <c r="AA21">
+        <v>40</v>
+      </c>
+      <c r="AB21">
+        <v>40</v>
+      </c>
+      <c r="AC21">
+        <v>40</v>
+      </c>
+      <c r="AD21">
+        <v>57.505617585429498</v>
+      </c>
+      <c r="AE21">
+        <v>51.121952225615402</v>
+      </c>
+      <c r="AF21">
+        <v>115.715415608722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>22.5338099981889</v>
+      </c>
+      <c r="G22">
+        <v>26.953481549250402</v>
+      </c>
+      <c r="H22">
+        <v>55.678338914558701</v>
+      </c>
+      <c r="Z22">
+        <v>80</v>
+      </c>
+      <c r="AA22">
+        <v>80</v>
+      </c>
+      <c r="AB22">
+        <v>80</v>
+      </c>
+      <c r="AC22">
+        <v>80</v>
+      </c>
+      <c r="AD22">
+        <v>37.599247231723098</v>
+      </c>
+      <c r="AE22">
+        <v>31.682599794671599</v>
+      </c>
+      <c r="AF22">
+        <v>66.611210073941507</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>38.967405928679099</v>
+      </c>
+      <c r="G23">
+        <v>40.514018835774202</v>
+      </c>
+      <c r="H23">
+        <v>88.480715868022699</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>56.079779099237498</v>
+      </c>
+      <c r="G24">
+        <v>53.989366503020499</v>
+      </c>
+      <c r="H24">
+        <v>120.29947497023301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>69.083452704603602</v>
+      </c>
+      <c r="G25">
+        <v>66.708492920955294</v>
+      </c>
+      <c r="H25">
+        <v>143.34535774909099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>57.505617585429498</v>
+      </c>
+      <c r="G26">
+        <v>51.121952225615402</v>
+      </c>
+      <c r="H26">
+        <v>115.715415608722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+      <c r="F27">
+        <v>37.599247231723098</v>
+      </c>
+      <c r="G27">
+        <v>31.682599794671599</v>
+      </c>
+      <c r="H27">
+        <v>66.611210073941507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332C20B3-7F3A-427D-A8F7-5C61BB0D2ECC}">
   <dimension ref="I1:I4"/>
   <sheetViews>
